--- a/Doku/Stundenplan_GAFliste.xlsx
+++ b/Doku/Stundenplan_GAFliste.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Nr.</t>
   </si>
@@ -34,13 +34,96 @@
   </si>
   <si>
     <t>Zeitpräferenzen der Dozenten bearbeiten</t>
+  </si>
+  <si>
+    <t>BUC1</t>
+  </si>
+  <si>
+    <t>Auslöser</t>
+  </si>
+  <si>
+    <t>Vorbedingung</t>
+  </si>
+  <si>
+    <t>direkt beteiligte Stakeholder</t>
+  </si>
+  <si>
+    <t>indirekt beteiligte Stakeholder</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Output des GAF</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>BUC2</t>
+  </si>
+  <si>
+    <t>BUC3</t>
+  </si>
+  <si>
+    <t>Start Stundenplanerstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Jeder Dozent muss die gewünschten Zeiten erfasst haben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Dozent
+ - Mitarbeiter Verwaltung</t>
+  </si>
+  <si>
+    <t>Kommunikationsaufbau zum Dozenten</t>
+  </si>
+  <si>
+    <t>1) Der Mitarbeiter startet das Programm zur Stundenplanerstellung.
+2) Der Mitarbeiter betätigt den Button zur Stundenplanerstellung.</t>
+  </si>
+  <si>
+    <t>Dozent meldet Änderungswunsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Planung für das neue Semester müssen begonnen haben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Dozent hat bereits Zeitpräferenzen angegeben.</t>
+  </si>
+  <si>
+    <t>1) Mitarbeiter der Verwaltung baut Kontakt zum Dozenten auf.
+2) Mitarbeiter erfragt Zeitpräferenzen des Dozenten.
+3) Mitarbeiter wandelt Zeitangaben des Dozenten in aufnehmbare Zeit um.
+4) Mitarbeiter erfasst Zeiten des Dozenten im System.</t>
+  </si>
+  <si>
+    <t>Erfolgreich: Stundenplan eines Studiengangs wird dargestellt.
+Nicht Erfolgreich: Stundenplan wird nicht korrekt dargestellt; System wirft Fehlermeldung aufgrund technischer Probleme.</t>
+  </si>
+  <si>
+    <t>Stundenplan wurde erfolgreich erstellt.</t>
+  </si>
+  <si>
+    <t>1) Dozent baut Kontakt zum Mitarbeiter der Verwaltung auf.
+2) Dozent teilt Änderungswünsche bzgl. der Zeitpräferenzen mit.
+3) Mitarbeiter prüft ob Änderungswünsche erfasst werden können.
+4.1) Mitarbeiter nimmt Änderungen auf.
+4.2) Mitarbeiter lehnt Änderungen ab.</t>
+  </si>
+  <si>
+    <t>Zeitpräferenzen wurden für einen Dozenten aufgenommen.</t>
+  </si>
+  <si>
+    <t>Zeitpräferenzen wurden für einen Dozenten angepasst.
+Zeitpräferenzen bleiben aufgrund von Zeitüberschreitung unverändert.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +135,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,16 +179,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,51 +531,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="38.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" ht="135">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" ht="120">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" ht="150">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Doku/Stundenplan_GAFliste.xlsx
+++ b/Doku/Stundenplan_GAFliste.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Nr.</t>
   </si>
@@ -117,6 +117,53 @@
   <si>
     <t>Zeitpräferenzen wurden für einen Dozenten angepasst.
 Zeitpräferenzen bleiben aufgrund von Zeitüberschreitung unverändert.</t>
+  </si>
+  <si>
+    <t>BUC4</t>
+  </si>
+  <si>
+    <t>Stundenplan löschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Eine fehlerhafte Planung wurde durchgeführt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mitarbeiter Verwaltung</t>
+  </si>
+  <si>
+    <t>1) Mitarbeiter ruft Funktion "Stundenplan löschen" auf.
+2) System erstellt Rückmeldung, ob der erstellte Stundenplan wirklich gelöscht werden soll.
+3) Verwaltungsmitarbeiter bestätigt die Rückfrage.
+4) System löscht den bestehenden Stundenplan und den Inhalt aus den dazugehörigen Datenbanktabellen.</t>
+  </si>
+  <si>
+    <t>Stundenplan wurde entfernt.
+Stundenplan kann neu erstellt werden.</t>
+  </si>
+  <si>
+    <t>BUC5</t>
+  </si>
+  <si>
+    <t>Stundenplan manuell anpassen</t>
+  </si>
+  <si>
+    <t>Start Funktion Stundenplan löschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Planungsmitarbeiter oder Dozent wünscht Änderung</t>
+  </si>
+  <si>
+    <t>Start Funktion Stundenplan manuell anpassen</t>
+  </si>
+  <si>
+    <t>1) Mitarbeiter startet Anpassungsfunktion.
+2) System ruft Änderungsdialog auf.
+3) Benutzer wählt neuen Raum und/oder neue Zeit.
+4) Benutzer bestätigt Eingabe mit Speichern Button.
+5) System speichert Änderung ab.</t>
+  </si>
+  <si>
+    <t>Veranstaltungen wurden verschoben.</t>
   </si>
 </sst>
 </file>
@@ -179,8 +226,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -199,9 +248,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -652,6 +703,52 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" spans="1:9" ht="150">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Doku/Stundenplan_GAFliste.xlsx
+++ b/Doku/Stundenplan_GAFliste.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="-4540" yWindow="-22060" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Geschäftsanwendungfall" sheetId="1" r:id="rId1"/>
+    <sheet name="Optional" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Nr.</t>
   </si>
@@ -77,10 +78,6 @@
   </si>
   <si>
     <t>Kommunikationsaufbau zum Dozenten</t>
-  </si>
-  <si>
-    <t>1) Der Mitarbeiter startet das Programm zur Stundenplanerstellung.
-2) Der Mitarbeiter betätigt den Button zur Stundenplanerstellung.</t>
   </si>
   <si>
     <t>Dozent meldet Änderungswunsch</t>
@@ -164,6 +161,46 @@
   </si>
   <si>
     <t>Veranstaltungen wurden verschoben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Studenten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Dozent (en)
+ - Mitarbeiter Verwaltung</t>
+  </si>
+  <si>
+    <t>1) Der Mitarbeiter startet das Programm zur Stundenplanerstellung.
+2) Der Mitarbeiter betätigt den Button zur Stundenplanerstellung.
+3) Das System ermittelt anhand eines geeigneten Algorithmus den näherungsweise besten Stundenplan.
+4) Das System gibt den Stundenplan aus.
+5) Der Benutzer betätigt den Speicherbutton.
+6) Das System speichert die Informationen des Stundenplans ab.</t>
+  </si>
+  <si>
+    <t>BUC6</t>
+  </si>
+  <si>
+    <t>Stundenplan anzeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mitarbeiter möchte Planung einsehen.
+ - Mindestens eine Planung wurde durchgeführt.</t>
+  </si>
+  <si>
+    <t>Start Funktion Stundenplan anzeigen</t>
+  </si>
+  <si>
+    <t>1) Benutzer betätigt "Stundenplan anzeigen" - Button.
+2) System holt Stundenplaninformationen aus der Datenbank.
+3) System erstellt aktuelle Stundenplan-Planung.
+4) System visualisiert aktuellen Stundenplan.</t>
+  </si>
+  <si>
+    <t>Stundenplan</t>
+  </si>
+  <si>
+    <t>Die aktuelle Planung wird auf dem Bildschirm angezeigt.</t>
   </si>
 </sst>
 </file>
@@ -226,8 +263,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,11 +297,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -595,7 +656,7 @@
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" style="4" customWidth="1"/>
@@ -631,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135">
+    <row r="2" spans="1:9" ht="195">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -645,16 +706,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="120">
@@ -668,85 +732,173 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="120">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="150">
+    <row r="4" spans="1:9" ht="135">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="150">
+    <row r="5" spans="1:9" ht="105">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="120">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/Stundenplan_GAFliste.xlsx
+++ b/Doku/Stundenplan_GAFliste.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4540" yWindow="-22060" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Geschäftsanwendungfall" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +253,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDC30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -262,8 +268,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,8 +302,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,8 +321,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -306,6 +343,8 @@
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -314,6 +353,8 @@
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -664,84 +705,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="195">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="120">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +830,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -806,32 +876,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="3" spans="1:9" ht="120">
       <c r="A3" s="3" t="s">
         <v>28</v>

--- a/Doku/Stundenplan_GAFliste.xlsx
+++ b/Doku/Stundenplan_GAFliste.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Nr.</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>Die aktuelle Planung wird auf dem Bildschirm angezeigt.</t>
+  </si>
+  <si>
+    <t>Aufruf der Funktion Stundenplan löschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Eine Planung wurde bereits durchgeführt.
+ - Eine neue Planung soll durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>1) Benutzer versucht eine neue Stundenplanberechnung durchzuführen.
+2) Eine Hinweismeldung erscheitn, dass die alte Planung zuerst gelöscht werden muss.
+3) Über den Button "Vorhandenen Plan löschen" löscht das System die bestehende Planung.</t>
+  </si>
+  <si>
+    <t>Der bestehende Stundenplan wurde aus der Datenbank entfernt.</t>
   </si>
 </sst>
 </file>
@@ -684,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -812,6 +827,31 @@
       </c>
       <c r="I4" s="8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
